--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF46131-23F0-5048-9F0F-ACF2C0D4249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE125CC6-A5DA-F64B-83CF-BCB6E558573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{F72A2205-DE2D-964E-A5FD-DAB0F5522465}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{F72A2205-DE2D-964E-A5FD-DAB0F5522465}"/>
   </bookViews>
   <sheets>
     <sheet name="NewUser" sheetId="1" r:id="rId1"/>
+    <sheet name="NewMessage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>TestDescription</t>
   </si>
@@ -247,12 +248,130 @@
   <si>
     <t>S No</t>
   </si>
+  <si>
+    <t>ExpectedResponse</t>
+  </si>
+  <si>
+    <t>Successfully new user created</t>
+  </si>
+  <si>
+    <t>User creation failed. Email already taken</t>
+  </si>
+  <si>
+    <t>User creation failed. Access code is invalid</t>
+  </si>
+  <si>
+    <t>User creation failed. UserId Field required</t>
+  </si>
+  <si>
+    <t>User creation failed. UserId Field exceed allowed 36 characters</t>
+  </si>
+  <si>
+    <t>User creation failed. Password Field required</t>
+  </si>
+  <si>
+    <t>User creation failed. UserId Field has invalid datatype</t>
+  </si>
+  <si>
+    <t>User creation failed. Password Field has invalid datatype</t>
+  </si>
+  <si>
+    <t>User creation failed. Code Field required</t>
+  </si>
+  <si>
+    <t>User creation failed. Code Field has invalid datatype</t>
+  </si>
+  <si>
+    <t>User creation failed. EmailId Field required</t>
+  </si>
+  <si>
+    <t>User creation failed. Password Field exceed allowed 200 characters</t>
+  </si>
+  <si>
+    <t>User creation failed. email Field exceed allowed 200 characters</t>
+  </si>
+  <si>
+    <t>User creation failed. platform Field required</t>
+  </si>
+  <si>
+    <t>User creation failed. timezone Field required</t>
+  </si>
+  <si>
+    <t>Send new message successfully</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "test-user1",
+  "message": "test message"
+}</t>
+  </si>
+  <si>
+    <t>Message sent successfully</t>
+  </si>
+  <si>
+    <t>Message with invalid userId</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "invalidtest-user1",
+  "message": "test message"
+}</t>
+  </si>
+  <si>
+    <t>Message sent failed. UserId is invallid</t>
+  </si>
+  <si>
+    <t>Message with without UserId</t>
+  </si>
+  <si>
+    <t>{
+  "message": "test message"
+}</t>
+  </si>
+  <si>
+    <t>Message sent failed. UserId Field is required</t>
+  </si>
+  <si>
+    <t>Message with without message field</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "test-user1"
+}</t>
+  </si>
+  <si>
+    <t>Message sent failed. Message Field is required</t>
+  </si>
+  <si>
+    <t>Message with with message field datatype other than string</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "test-user1",
+  "message": 1111111
+}</t>
+  </si>
+  <si>
+    <t>Message sent failed. Message Field data is invalid datatype</t>
+  </si>
+  <si>
+    <t>Message with with message with more than 1000 characters</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "test-user1",
+  "message": "fdagnsrfwsrsfsfgarsbdgsdfgsdfgsdfgsfgsfgdfgdgsdgsdgfsdf"
+}</t>
+  </si>
+  <si>
+    <t>Message sent failed. Message Field length is more than 1000 characters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,6 +383,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,14 +450,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,20 +785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294B7562-3517-3B4B-B059-A07C11E4197B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="43.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="5" width="43.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -671,10 +809,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -684,11 +825,14 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -698,11 +842,14 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -712,11 +859,14 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -726,11 +876,14 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -740,40 +893,49 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -782,12 +944,15 @@
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -796,12 +961,15 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -810,91 +978,255 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="D14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2178BE-8A6A-4947-AD87-D156F8A725AB}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="11" customWidth="1"/>
+    <col min="2" max="5" width="43.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
